--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1734.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1734.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.5822174314181786</v>
+        <v>1.011503338813782</v>
       </c>
       <c r="B1">
-        <v>1.36426221859824</v>
+        <v>1.42776894569397</v>
       </c>
       <c r="C1">
         <v>-1</v>
       </c>
       <c r="D1">
-        <v>2.33936357828666</v>
+        <v>1.729949235916138</v>
       </c>
       <c r="E1">
-        <v>1.542960351220786</v>
+        <v>1.035499930381775</v>
       </c>
     </row>
   </sheetData>
